--- a/json_max.xlsx
+++ b/json_max.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sphere\Titan_3070\user Dmitry Nesterov\Downloads\Downloads_00_All\Маркус\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E187FAA3-2B01-46C7-847B-AE1EE6236365}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84F6DF15-B100-46A8-89EE-E58FCEF39D02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30540" yWindow="3855" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="1635" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -114,10 +114,10 @@
     <t>U2FsdGVkX1+OSmLAeytfRFMzwftOg7BmHQT6GYLtwb17ew7I/rZrHXM2KOujqXwc/aBvndfAz6U5ltHv8g67vD7DOQSPPIUTYK2XM/4+XGMNqlxtciFXSfm7nytpBIQOWC3qB+e8ZqUaPUkacfkVQa3MwERnX8LBaNdq3C5bGlqDxO951iCgbOLjn+LuohvCFk0+u4F9shF8B/yPl2YJOZpzSQaWk8hmd7zfHrNOn6aUBWGJi7EJicqJX19/EsyqniFCxBAPKnUs6R3AanXuIXsKGPAwomOLZtwc2yQm6+GHPRacQ0HoT3LEfWC6VjjRWvNWV31EO26KUM3dWj1VRUULSQjlUzOWgYr+8solE0oMz8sxIlda08Bc0ERV4w3t</t>
   </si>
   <si>
-    <t>U2FsdGVkX18+TC4UCMpCkhFgnQzoZ+/CmQRBeaZnfaKYcFRJ9rY9kf0R9bXogMsEL00zgzEZew3DIvIomjjVRSKvRSS/HyHc8U09fI2oLkxztiIZkd3FmeAb2BB6JuIsByrVECQGPjcxX+X6yUNLlKmrMUmZt5t7MxwNBkEATnW6BCmTm98N0VIQRy/TJv8pn0SJywUHIp1RLEOhWuwqB+8ucv8IpNEb9frvH0QnnKrp557YEOOvffiL2jVk5zl8hhJSnI5FJbINZfSstRTtc1x0zWK1ZrREArdULdcHIQ3TLdvVBhIBO2mNFtBLsllH/CSe9d86B63Zk6UT+Vc8yX0kvp2AhuYM4xbkYBw/o1jY8N6MS6zOx+qqo1pOhCfzK6oiNyk2LOUqKPErkW1H3I6DaOd8zDO/DQLqt7xYqjLXZF64unR5dDPDf/LfzLPRbYflmFE5teZqhfAAj1n3KbNBrvUE7YU7YHw3JzWrYNWDOvVmm0fDP7bnueJ2m2irPEIN67PiB1d5ZIeuRRkSIJNgkhvB/e7fgHXberbT9rlZg8mUVeEzVG11d4ViPkI+2SW+gt3cIwdlzvaTfyHuTn+wJDvmGx6goJn+tqgbAnfEz1i4jMXtcY4EwxEC46ETxeayosdDIxX5Iswu/YvEeFfVfHCCAgg0IY4M7p/QJZ/f9OIf36RozLKjJEPT7BAjT23DwF2hD2JSNv3QkwbA29qKE/wdOu5zg04U28u1wC+Cr7x7HQthhDAsjzrNDoCJN/l+MmwCtTgKbWoO4noc++qEHoDsEj4RC7ZOkz8rw7Zv4PmHb0kVkrbNmyl8JAOL4xxZfUd66hq5OsfvT4zm2wer6Ms+KgNv1k6Pb6tFXDyTUcO8UJuTpKLUUV3RrWiLboqwOUk9Cp6cIx7KtIOiJxiNg87wojt3GCpGnrUyoEy2zDdMlJjw93R5smQTWbJjRQsngrbdxVe4fq7WN3fzmFwl6gUPSiBa3EiBXqahawWZ8+CbbVVqrTSnNkAHqLb3pqOL8WnstW5B8oNGZ7jIYR6u09A+Rx9WEUZrWwC4pHck/+WGJ4Ju+q4KPhpb00WiHGJxrB+QGxNmklMWLH3TJ/W86YZ8KeYBKs1hIuUkyT1q2nzG4DAL01qeZWjMS9+SEqotFuN66KEKgNZP9kiiyUPHsnW6R+nsGfPpq6W4NJ8=</t>
-  </si>
-  <si>
-    <t>U2FsdGVkX18Rr+03ifZxXwdu3Mn/Fgy5/xaYeGjU5RiNgLJZvNUVqoxiTeAcOZ+zP5Y30vCpUJ2wDQwmy2C/tHqWLM4a/rKFDGAtmjyUko3yWOWX1m080s0pdr0iCNSNz6O1kRsMGFtPKhPJiyGWVYj8KBwLYUcREYdL4dSZV+ezwi25wN1A+pUvFt0FPXgaCm/GkR08tHSZiPLLmzIAuWjcYAVFLEYOVbLKans/tFI2eYtPtiCRZr1GRFMCkRJX</t>
+    <t>U2FsdGVkX1/kl9dHvj1AAodq6aaqyy8BUPPOOUxkT9Jf4uH3m9zzXNlXQtHolSAD4+idhFaI+E0y2axksFZkvTpkbZvl1z+cWGbs1pgftbkPR9FEcTtOVuvFjnAy+NrH16NYHPs252hZ+q6TruM+kQjn0Vuh4UjrM59MQTLPfEtZcFKsEYs176y0GH60M6Z9KZwPaYstUtXQsLEdIbI/Esh6BDqbkTtjw6qMv7f1+6XSJu0OhKtFJ5q9OrappOQqwkN2VcD/iy25+MdkmbV6Mbr8T8dPGqcDnk6U6Wzp1WcC5DcPzbXn6V0r0F9wH5IDo16z+DvuLDzFpkbOVRkt2QNOg40Oi5PIKMuyll8flS+Q+5zyNUn2bXzhnnjrQcRNhFrAmWUDhp+p/xFlExoOdJnWmjapeg1X21pw3ru+KCk1YqOd0MhXPr8e9y7SgMUWPGafVFyjxQ1QYEPmHkM++6puxhFzUGbAh+sh9Gs5aYYI8edJEpgNSE5TtnpUVr08F9DVCpl6CnwWgtU7CU8GxuWUblP37doiRkhLgBkIh+zCF3w0EVScZ6U779UZ10lSYMJlgMFDkFrnsEhE91FoIefVeCOuXliBb9zGETb+Eqr8kNViP5Ump4vJf2Iq8ZawPIDgKVS2X1mUfqMjHg1K50NdWrhxyTNjQTQvu3v0YIHDEsisWGJZcAsfMYb6tBSJTHSs2IFFlNh6X1YCq/HTkXiSh0vFZf8fzqW6kDkZ7Bsk12l2l1zp1r1fpZZF7Y+/iVH8wPmiI+R+7W0ecIFZH+7RVQcSO94UR7qeqmOlLVZOitDIhWk2U9U2+03puYdJ//xCWrazTSr04GZ8k3UO7KmLZ2MiVZMbNpZN3oRfaBmNwz4rvtRtlVgYyEOPla8XbbKVDLufxfH9+lNjj/HKDszGrReznh1B8sgBge7QVN/RfXMGWbQ+6SvkdLcn3rIo9VR7fSnPhnwA0YFRiuQWWxiUsJMjVeqrkh65z9f3JLYgXkTAABy5fIMM5VuzR8r4VTdFBYY581b2KtcChMaPS4G1xMA3y5WZ7RUin9FWo602xB6OMpCYFcmjz10RJyyIO4i+cJeLFwlyLxHnY9KtSmm/Psfs7CvzZ2XS6J7fHWPPCIn/XyIdNaWRsKs36WYlwFLiYTV0SLvhjUYLQca11FjMUnpdkuQ0X1mYXeYMJJd45kwA2XxAqBTxFttZErJB7JVjwyqeoy7co/tCGeHULTfZzlv1AQEMPKXWLJM9dSDeamf9lb1ScfHyQ2W3haGDK4bwTKndAsLAJOXkVNXJ7BNZPCQnQcQJUBmw4W7BdhQi2HrC25avYpFo45LUymByBKOUp+dv+cEIoz4O7afUZ0VD/DomYN9ZLGaF+NcVsBHmFq+OTRl8FgSG/V+b37L/bPNEef/wGMltliKjs2DOyQ==</t>
+  </si>
+  <si>
+    <t>U2FsdGVkX19Ae8VO010rhTmO9aJs+DbkAtfYaJE5ZdPDtKn0twktiq0W0ZsjEdDuqK2N4+W1eCmgLR5xnuwbPlyUh9uc9s9hoeSQqF0yv/99x7wS3JXeOAwUgpvQzOXvjAw4e/48PccHObB9v4+YSFvk2dqqqETtUEtM+iWe45IICdtgxjaOg4BYoQSzsKNdFg7IPlIv/U2tAgi0NRgwBiXniL4aZqsW6nCEtV+A6QPlEpRa/wuJLRZ9wjB0rGKd</t>
   </si>
 </sst>
 </file>
@@ -451,7 +451,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B17" sqref="B17"/>
+      <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/json_max.xlsx
+++ b/json_max.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20409"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sphere\Titan_3070\user Dmitry Nesterov\Downloads\Downloads_00_All\Маркус\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mardeev\Desktop\Для Посыла\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA06740F-8C8B-48C3-99A9-A08748590B61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EA822E2-62ED-4AF9-8539-1069517A8B36}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5385" yWindow="540" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -451,7 +451,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B17" sqref="B17"/>
+      <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/json_max.xlsx
+++ b/json_max.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mardeev\Desktop\Для Посыла\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sphere\Titan_3070\user Dmitry Nesterov\Downloads\Downloads_00_All\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EA822E2-62ED-4AF9-8539-1069517A8B36}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B51C360-ED29-4707-9758-69DFB82DD155}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29235" yWindow="2595" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -111,13 +111,13 @@
     <t>U2FsdGVkX1+ZHyL6mQAnekai8147qb3wFc31whMU5vkhYwwWOyKsPT8y5HB6XlP0Ox9J8hugvpxHbfKH4rBZAJeLTCrYPuoncx4JvQ0dkTus6DPzBvMBN9zk3DaYTmWhL93inxz2wX7yRYiE6ThELTI7cyQIa4ruycFIpR0/9bfpC9sXUm2aMk82bxJM1051O5wMshwxmakfTBZJAGqGz1GY44cmX6+xYc2DRZ5TgIBZbiwh2ad09vP4aAQvo6Wsia2v/pBcnQjNKEi1K3sa+U1iLaHX8Wq4c+hDMrAUA/9ptlz+/iT/3J4bYEq+mtExCb7CuAE+KcTvwoJeK3kX0A0uJ0WmMjMQN2QCt5f60EPlTYiz5gug1hidZ2FiqV5tblHdMfuImQzk8PbAX2muiAxWNOQZZjYXlog9U2+WOq14/luzxYKr5dc6b3wajzDeqkio2CqeXXeG6TZ4mdqhtw==</t>
   </si>
   <si>
-    <t>U2FsdGVkX19Ae8VO010rhTmO9aJs+DbkAtfYaJE5ZdPDtKn0twktiq0W0ZsjEdDuqK2N4+W1eCmgLR5xnuwbPlyUh9uc9s9hoeSQqF0yv/99x7wS3JXeOAwUgpvQzOXvjAw4e/48PccHObB9v4+YSFvk2dqqqETtUEtM+iWe45IICdtgxjaOg4BYoQSzsKNdFg7IPlIv/U2tAgi0NRgwBiXniL4aZqsW6nCEtV+A6QPlEpRa/wuJLRZ9wjB0rGKd</t>
-  </si>
-  <si>
-    <t>U2FsdGVkX19dnD3c4qpgN6mrOhRs1LwDza1b4xFDKPgvNa9RlqxsP6lYGURENC+K6jWyWMaV+VepFXTXwROtDeLESIASHFbn3fRhSYl+SVow1NPAZlfsmPl+ULF8roQNWT8Fge/S+VPV+/zcpPZuzIv8UZ5j09jzM5wQLdlhQhyR9HPaBUn+jC1JgsvxFmg2UoV23PnOl9MLiZaoZgXjniboZEC8djpn2a6qz+SYmSm8/grE8EacTd6SfKVcRdKkOm1Xsi5cRtMBWP7eMg9J/YLf+egIzGoe68KcmXiyLMOmmfAKNZEZECDKCvIggqszJEO/0exoOYO7Whg15mlp7MmtViq6aS3DutHdfKUzWXQ=</t>
-  </si>
-  <si>
     <t>U2FsdGVkX1+lUCchG5dRfcxw4S6OG26+o0pLVrsHsFW6izTIrGzFN3EKcCOObQdHnIi0fHt5TvjS25V5vkunwXgup/KU8pe2ncLBHfpEe6g4/nYIZz+davjGU9E1GqCyfLmGpPbSIOb6Us/NUpWFPibhNbsn7w4ROQ2ylZ3AcWItE5Sy9zlabp1ix2lNiUfz/qLAIGZKNi+YdkCqJ9oDYO093kPdwFKbgzpiiui1gzg9ZcjKZ5WJ/BPZ/vd5CPtJmayjAWVKsW1U7cXelWuOuQjRajUvAn2y3KEUfuqWKVLnFMAaG3+w8Hx9+XaYfmE2TjRPjX2RvMycforapKZSwtFEelmItsdZIniZG3rZO0H6Ozm64A/8EBy8PBLqyw7gYLNOislnQTJiaWEmQViAN+M+RJGx8zp5EXfrRkvRnpcpDQc59j4rB7qaEZyVEDcjDwWocqqyPnXYPjBSfbyRIAxl3jocGxpZ5nwfLeQgt2GTIrNRl2YR3/kz7/ak7mG28QoFfTkPaGrbKBrM3tCBvRcFXZftifV45linnLbqSgwymgVrvO8Pf92AOSHM4Aewdvag0V3mrUCcVkjv7PunW8fOU1YCv4hX2XR5WKYk6J0FrW5/0TsDtj3vqXFIpxSUdlwkk9brn4XxZCPd/hGdYH9GjF9HCNLf1fgfH6X9SPFZ2pnmo7ni76IhpjlG1cKw2bYI7TtcpikDEbFCNpuQxy27cxfGJJ2HzA2wHzbz17q2XaGuCoxi9/4oYcepARlGoYpZl/Bf+DBwXMTbeFZ16vkoZE433htfx9xcZfIf5sDR5xmwzq70olbauMilQsRW3MaiqI8jPnn8SVv/kyh5seIKBVlLgvEkahn+d02GejGiCJN4HOjYXqehA8D8t8sUnLJblsjqgQc4uzBEukntgB1AZvQoUHsJHJAGm7Lp9LgTwvys4SPneJLWIxZ2Dnh/</t>
+  </si>
+  <si>
+    <t>U2FsdGVkX1/7B7N32aaq9jrYalUe5yoZD7xuJE34Zdpb845TlihaGy7rZTWYz3JI6vibM4VaDWoouTDS00TEL4QatZIMXYGLQCWnqakX1xjzsNu/txXJ/+ETeJs1ZP9B4dzIrmkZg9w+jZUXgj3YqPL80LWMmWKBrqXc4qUUAR6mHtI6oawguolHaKQOoOnuxvoz5jyMDBj4Hp0GuWm7c3Bhx5tUQ8BvPHICVGgBtt4mVLTiXwiVhiEAVqMBkb9OfS/j8HfeXQwgGeqlsYCFDw==</t>
+  </si>
+  <si>
+    <t>U2FsdGVkX19PQST6oRb3uUB6cyFGdsIe3QUaut36xRhgLrSBER105qGmrDnJXxbaWymmB+ThxbaUB/2O+Ds43dTIknLYob/k0M0RbX2MDgrctlkZFdFNYVqlWnLM3by+hv3UN1QizejtpYiLVxV7/ArnVBXUjSX2aIKHQnUvA+spseey7QSREKnbVdtxq41v+qUg9R26IAsgSlcxprgipHlJFeqWr5YUz04TPmqAgfkEDM3TDF/c85UlZSjbRuIdhmCL3UsET/2dGAIUhw8t0zUEPVlDGc1aGLYOwX2OEk00ADNWWXrQFObHiQg6yQmcIE6XkjUB5naO7fSZC/jolVkqQvGMS5J/LLqTxJfTIh4=</t>
   </si>
 </sst>
 </file>
@@ -451,7 +451,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
+      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -482,7 +482,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>4</v>
@@ -570,7 +570,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>16</v>
@@ -578,7 +578,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>15</v>

--- a/json_max.xlsx
+++ b/json_max.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sphere\Titan_3070\user Dmitry Nesterov\Downloads\Downloads_00_All\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sphere\Titan_3070\user Dmitry Nesterov\Downloads\Downloads_00_All\Перекид\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B51C360-ED29-4707-9758-69DFB82DD155}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2D051FD-080C-49D6-A734-AB6012A83D1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="29235" yWindow="2595" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -111,13 +111,13 @@
     <t>U2FsdGVkX1+ZHyL6mQAnekai8147qb3wFc31whMU5vkhYwwWOyKsPT8y5HB6XlP0Ox9J8hugvpxHbfKH4rBZAJeLTCrYPuoncx4JvQ0dkTus6DPzBvMBN9zk3DaYTmWhL93inxz2wX7yRYiE6ThELTI7cyQIa4ruycFIpR0/9bfpC9sXUm2aMk82bxJM1051O5wMshwxmakfTBZJAGqGz1GY44cmX6+xYc2DRZ5TgIBZbiwh2ad09vP4aAQvo6Wsia2v/pBcnQjNKEi1K3sa+U1iLaHX8Wq4c+hDMrAUA/9ptlz+/iT/3J4bYEq+mtExCb7CuAE+KcTvwoJeK3kX0A0uJ0WmMjMQN2QCt5f60EPlTYiz5gug1hidZ2FiqV5tblHdMfuImQzk8PbAX2muiAxWNOQZZjYXlog9U2+WOq14/luzxYKr5dc6b3wajzDeqkio2CqeXXeG6TZ4mdqhtw==</t>
   </si>
   <si>
-    <t>U2FsdGVkX1+lUCchG5dRfcxw4S6OG26+o0pLVrsHsFW6izTIrGzFN3EKcCOObQdHnIi0fHt5TvjS25V5vkunwXgup/KU8pe2ncLBHfpEe6g4/nYIZz+davjGU9E1GqCyfLmGpPbSIOb6Us/NUpWFPibhNbsn7w4ROQ2ylZ3AcWItE5Sy9zlabp1ix2lNiUfz/qLAIGZKNi+YdkCqJ9oDYO093kPdwFKbgzpiiui1gzg9ZcjKZ5WJ/BPZ/vd5CPtJmayjAWVKsW1U7cXelWuOuQjRajUvAn2y3KEUfuqWKVLnFMAaG3+w8Hx9+XaYfmE2TjRPjX2RvMycforapKZSwtFEelmItsdZIniZG3rZO0H6Ozm64A/8EBy8PBLqyw7gYLNOislnQTJiaWEmQViAN+M+RJGx8zp5EXfrRkvRnpcpDQc59j4rB7qaEZyVEDcjDwWocqqyPnXYPjBSfbyRIAxl3jocGxpZ5nwfLeQgt2GTIrNRl2YR3/kz7/ak7mG28QoFfTkPaGrbKBrM3tCBvRcFXZftifV45linnLbqSgwymgVrvO8Pf92AOSHM4Aewdvag0V3mrUCcVkjv7PunW8fOU1YCv4hX2XR5WKYk6J0FrW5/0TsDtj3vqXFIpxSUdlwkk9brn4XxZCPd/hGdYH9GjF9HCNLf1fgfH6X9SPFZ2pnmo7ni76IhpjlG1cKw2bYI7TtcpikDEbFCNpuQxy27cxfGJJ2HzA2wHzbz17q2XaGuCoxi9/4oYcepARlGoYpZl/Bf+DBwXMTbeFZ16vkoZE433htfx9xcZfIf5sDR5xmwzq70olbauMilQsRW3MaiqI8jPnn8SVv/kyh5seIKBVlLgvEkahn+d02GejGiCJN4HOjYXqehA8D8t8sUnLJblsjqgQc4uzBEukntgB1AZvQoUHsJHJAGm7Lp9LgTwvys4SPneJLWIxZ2Dnh/</t>
-  </si>
-  <si>
     <t>U2FsdGVkX1/7B7N32aaq9jrYalUe5yoZD7xuJE34Zdpb845TlihaGy7rZTWYz3JI6vibM4VaDWoouTDS00TEL4QatZIMXYGLQCWnqakX1xjzsNu/txXJ/+ETeJs1ZP9B4dzIrmkZg9w+jZUXgj3YqPL80LWMmWKBrqXc4qUUAR6mHtI6oawguolHaKQOoOnuxvoz5jyMDBj4Hp0GuWm7c3Bhx5tUQ8BvPHICVGgBtt4mVLTiXwiVhiEAVqMBkb9OfS/j8HfeXQwgGeqlsYCFDw==</t>
   </si>
   <si>
     <t>U2FsdGVkX19PQST6oRb3uUB6cyFGdsIe3QUaut36xRhgLrSBER105qGmrDnJXxbaWymmB+ThxbaUB/2O+Ds43dTIknLYob/k0M0RbX2MDgrctlkZFdFNYVqlWnLM3by+hv3UN1QizejtpYiLVxV7/ArnVBXUjSX2aIKHQnUvA+spseey7QSREKnbVdtxq41v+qUg9R26IAsgSlcxprgipHlJFeqWr5YUz04TPmqAgfkEDM3TDF/c85UlZSjbRuIdhmCL3UsET/2dGAIUhw8t0zUEPVlDGc1aGLYOwX2OEk00ADNWWXrQFObHiQg6yQmcIE6XkjUB5naO7fSZC/jolVkqQvGMS5J/LLqTxJfTIh4=</t>
+  </si>
+  <si>
+    <t>U2FsdGVkX1+35lx9lgFRMegpSQ9XGuPYSA3PLBTHm8poKFV+6PGHtQHWVwFvVCjGNgxlsz0x9DBtqPmu0CS8KS6U0XtfSLqoFG9LWH5Z1932EPUbRQFKFSo98Khq3ftd1Avxm2zK++wMotOAckVzyAdT0rWijbtUzqgzrui8P+M6ZLEEE1VP8oXOOPJ8Am0NYnAZR/1nizGEFuVJX6ty2uO/vb8J6VLn5dfoif0rBW+hOoa3ZcHrqzWWevrnhn25gpqkcHoXaqRO/Me65NRXiRj9BL7nox5mMH98wGGjTxD6J8eo5X61MC7qJp6ub85FkQ317MxDJjVtlDT7om0xW3+hdRjnTBZHF1nZgHY2etxc8un+go43Y4eNsRaeeo2fZFRVClYjHIVYeF+zkBVqo4dfc4rLY9B1uy6HPGI3ev/k4gD0OE0g6bk4260/O9Mxzr59bDztGemBrkMs3LbaRylZ6+DShcURTm1ldCfRoWgn1lyxdvn3ccpRqCabZseolfC9YxtIGpMudC4VtDtzxMlE0669rNqm9X5qzRAXMgG2KjfCEOtsnZJyblVyY7Cf1ipqcBL0tkuVFraFaj96Zt73DszwIJg1yrk6EIeGKP3uYB4B0Sxnk/m3LGMyM/t3pkvW2NNLLXmKn3WLQFCSQFW6PqMe48IbUSXoUlMjrmPOAQD605BgJCKT0PewkvkZWamHE6O7NYhOoRrDoQtFgEFULoYfpyHu0z9TF5THicEMj5G+JDLYlIEmmSzB+V2CWLV/kcJup8AzjZjzMY57Oq5FxH4DPFIWBx4h6xLJCM+KM3nPTXLRqrRxH7lIqWlsudZNpHCvhrD1VFGBhIOCPqxAaeiBLZu258kjJGHxvZGbEct5xvZkANLsISI8X2uaFVA5+OvA+E5OgbvBW71gkKwXGCHUjpjHIMegOG7fFQ9YfEbDIBcQlz6W8QwduKYWiYL2g3eg90RDd/6VEXMvCLvWTDzwZ2L6RhbqXlVq/vjFIdLr0RCEj5JNKsDlGjq42eFEZqwtKwIhq8nIY02mFR4CMP5ZF6wEoYz+2Ez96bGRQy+gAmZpNzBnxzLpRXTG</t>
   </si>
 </sst>
 </file>
@@ -451,7 +451,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -482,7 +482,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>4</v>
@@ -570,7 +570,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>16</v>
@@ -578,7 +578,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>15</v>

--- a/json_max.xlsx
+++ b/json_max.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sphere\Titan_3070\user Dmitry Nesterov\Downloads\Downloads_00_All\Перекид\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sphere\Titan_3070\user Dmitry Nesterov\Downloads\Downloads_00_All\Маркус\4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2D051FD-080C-49D6-A734-AB6012A83D1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB73DD0E-B30E-4610-8481-C22366BC67D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="29235" yWindow="2595" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -117,7 +117,7 @@
     <t>U2FsdGVkX19PQST6oRb3uUB6cyFGdsIe3QUaut36xRhgLrSBER105qGmrDnJXxbaWymmB+ThxbaUB/2O+Ds43dTIknLYob/k0M0RbX2MDgrctlkZFdFNYVqlWnLM3by+hv3UN1QizejtpYiLVxV7/ArnVBXUjSX2aIKHQnUvA+spseey7QSREKnbVdtxq41v+qUg9R26IAsgSlcxprgipHlJFeqWr5YUz04TPmqAgfkEDM3TDF/c85UlZSjbRuIdhmCL3UsET/2dGAIUhw8t0zUEPVlDGc1aGLYOwX2OEk00ADNWWXrQFObHiQg6yQmcIE6XkjUB5naO7fSZC/jolVkqQvGMS5J/LLqTxJfTIh4=</t>
   </si>
   <si>
-    <t>U2FsdGVkX1+35lx9lgFRMegpSQ9XGuPYSA3PLBTHm8poKFV+6PGHtQHWVwFvVCjGNgxlsz0x9DBtqPmu0CS8KS6U0XtfSLqoFG9LWH5Z1932EPUbRQFKFSo98Khq3ftd1Avxm2zK++wMotOAckVzyAdT0rWijbtUzqgzrui8P+M6ZLEEE1VP8oXOOPJ8Am0NYnAZR/1nizGEFuVJX6ty2uO/vb8J6VLn5dfoif0rBW+hOoa3ZcHrqzWWevrnhn25gpqkcHoXaqRO/Me65NRXiRj9BL7nox5mMH98wGGjTxD6J8eo5X61MC7qJp6ub85FkQ317MxDJjVtlDT7om0xW3+hdRjnTBZHF1nZgHY2etxc8un+go43Y4eNsRaeeo2fZFRVClYjHIVYeF+zkBVqo4dfc4rLY9B1uy6HPGI3ev/k4gD0OE0g6bk4260/O9Mxzr59bDztGemBrkMs3LbaRylZ6+DShcURTm1ldCfRoWgn1lyxdvn3ccpRqCabZseolfC9YxtIGpMudC4VtDtzxMlE0669rNqm9X5qzRAXMgG2KjfCEOtsnZJyblVyY7Cf1ipqcBL0tkuVFraFaj96Zt73DszwIJg1yrk6EIeGKP3uYB4B0Sxnk/m3LGMyM/t3pkvW2NNLLXmKn3WLQFCSQFW6PqMe48IbUSXoUlMjrmPOAQD605BgJCKT0PewkvkZWamHE6O7NYhOoRrDoQtFgEFULoYfpyHu0z9TF5THicEMj5G+JDLYlIEmmSzB+V2CWLV/kcJup8AzjZjzMY57Oq5FxH4DPFIWBx4h6xLJCM+KM3nPTXLRqrRxH7lIqWlsudZNpHCvhrD1VFGBhIOCPqxAaeiBLZu258kjJGHxvZGbEct5xvZkANLsISI8X2uaFVA5+OvA+E5OgbvBW71gkKwXGCHUjpjHIMegOG7fFQ9YfEbDIBcQlz6W8QwduKYWiYL2g3eg90RDd/6VEXMvCLvWTDzwZ2L6RhbqXlVq/vjFIdLr0RCEj5JNKsDlGjq42eFEZqwtKwIhq8nIY02mFR4CMP5ZF6wEoYz+2Ez96bGRQy+gAmZpNzBnxzLpRXTG</t>
+    <t>U2FsdGVkX19VJsclZKJPa1LN5ZfTIz0PBXT25PpjC7YQycibyZOuX89pKo/2PGFrArKn7e4i2d6NDYESGi9aiY8TSmwRW2jMqR1EI4skCVk0Pb9/L4lCo7APvIxqg2EkpgZCCZ8hky95+pXpCcOvX7tkkO0DfC21nw8RmvjlZnxLhY7Dg8LztQ0aq4mfnzvaR2ZVFK/B98I/kjVTlZLm47cvRmooZOMVS9z8+Ij0p3xirqVpCLLh9l8uDmPerPeVTDu76Og5CeRmbcuPp0Zt7+dlEMlwL8IoErCKGCfPz1eGQsuCCMPBj3oBGqNEyeIDL9ssaJYUNbnj7nDt6iTnS6w4dlQGCqnYTCUgPJMe2sKgfDDXd/aMcS87jKnrrekMtMiJ/bl/vvzvWck4fuqSKraYh/iZYWhufv75EIFWw6UTNDjtZ06cNLlfq53O1Mrb74BR2MBH5hzo2+Z4dIlp7deJhecGui+FcCOboASSwGeBYNv3ahhR21arWmZJGioKRqttSry1u4oEvatFOKj9M2SDwLm13F+8cX6gKlqA/abTyP8cMPthor5RciGLOgulait/h9AkpAfcFC9q3TTZjxY07pbVZ/zRKYSHLwWkFROgptbKaaT0y8pD0JZFTE21PzLAtFMl0IbqzTj9o7txvspqeAY/8cadxXatoz3nczMHWqJX/w0w3b/ZlssDcrNC9pLyYLTrFgVvZNKMyVJ0tz67Udx9ADRSBFh2oLobXE+hLNX0YMrDPcMmpGe95aIBwNkeJCapF2DBKzKqTsMZzi1dvku+3qiBuDz9HHCwgZ8LjWeLKhb52bq6mZP1pslTyi3fAA/+yWGxjplJ/WnuOyvCW8hM25MgTf5EJIjLBBh0lg1obmIWL+NgrbVeZTvSMp+bWwLfPpiLuzlLPAsVsJjGS5Y80FG/Aa8usTr6bmKcZE3ucitFcDumhWECdd5YWSGbzEiF9kNJeBFfNWpqZ1VF5ZZSGUlUCTrjdzHAXOtRaArAmy6IBuKstgkf4n6VS2b+KyQ0mCSuGR5CMvhAHlSxg2wWKGejQgv9SN7VxmAnpeSXfm3M/Kg/WC1vqana</t>
   </si>
 </sst>
 </file>

--- a/json_max.xlsx
+++ b/json_max.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20412"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sphere\Titan_3070\user Dmitry Nesterov\Downloads\Downloads_00_All\Маркус\4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mardeev\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB73DD0E-B30E-4610-8481-C22366BC67D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6488EBA0-0A46-4417-A244-6C6FC61FAF77}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29235" yWindow="2595" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" refMode="R1C1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -117,7 +117,7 @@
     <t>U2FsdGVkX19PQST6oRb3uUB6cyFGdsIe3QUaut36xRhgLrSBER105qGmrDnJXxbaWymmB+ThxbaUB/2O+Ds43dTIknLYob/k0M0RbX2MDgrctlkZFdFNYVqlWnLM3by+hv3UN1QizejtpYiLVxV7/ArnVBXUjSX2aIKHQnUvA+spseey7QSREKnbVdtxq41v+qUg9R26IAsgSlcxprgipHlJFeqWr5YUz04TPmqAgfkEDM3TDF/c85UlZSjbRuIdhmCL3UsET/2dGAIUhw8t0zUEPVlDGc1aGLYOwX2OEk00ADNWWXrQFObHiQg6yQmcIE6XkjUB5naO7fSZC/jolVkqQvGMS5J/LLqTxJfTIh4=</t>
   </si>
   <si>
-    <t>U2FsdGVkX19VJsclZKJPa1LN5ZfTIz0PBXT25PpjC7YQycibyZOuX89pKo/2PGFrArKn7e4i2d6NDYESGi9aiY8TSmwRW2jMqR1EI4skCVk0Pb9/L4lCo7APvIxqg2EkpgZCCZ8hky95+pXpCcOvX7tkkO0DfC21nw8RmvjlZnxLhY7Dg8LztQ0aq4mfnzvaR2ZVFK/B98I/kjVTlZLm47cvRmooZOMVS9z8+Ij0p3xirqVpCLLh9l8uDmPerPeVTDu76Og5CeRmbcuPp0Zt7+dlEMlwL8IoErCKGCfPz1eGQsuCCMPBj3oBGqNEyeIDL9ssaJYUNbnj7nDt6iTnS6w4dlQGCqnYTCUgPJMe2sKgfDDXd/aMcS87jKnrrekMtMiJ/bl/vvzvWck4fuqSKraYh/iZYWhufv75EIFWw6UTNDjtZ06cNLlfq53O1Mrb74BR2MBH5hzo2+Z4dIlp7deJhecGui+FcCOboASSwGeBYNv3ahhR21arWmZJGioKRqttSry1u4oEvatFOKj9M2SDwLm13F+8cX6gKlqA/abTyP8cMPthor5RciGLOgulait/h9AkpAfcFC9q3TTZjxY07pbVZ/zRKYSHLwWkFROgptbKaaT0y8pD0JZFTE21PzLAtFMl0IbqzTj9o7txvspqeAY/8cadxXatoz3nczMHWqJX/w0w3b/ZlssDcrNC9pLyYLTrFgVvZNKMyVJ0tz67Udx9ADRSBFh2oLobXE+hLNX0YMrDPcMmpGe95aIBwNkeJCapF2DBKzKqTsMZzi1dvku+3qiBuDz9HHCwgZ8LjWeLKhb52bq6mZP1pslTyi3fAA/+yWGxjplJ/WnuOyvCW8hM25MgTf5EJIjLBBh0lg1obmIWL+NgrbVeZTvSMp+bWwLfPpiLuzlLPAsVsJjGS5Y80FG/Aa8usTr6bmKcZE3ucitFcDumhWECdd5YWSGbzEiF9kNJeBFfNWpqZ1VF5ZZSGUlUCTrjdzHAXOtRaArAmy6IBuKstgkf4n6VS2b+KyQ0mCSuGR5CMvhAHlSxg2wWKGejQgv9SN7VxmAnpeSXfm3M/Kg/WC1vqana</t>
+    <t>U2FsdGVkX18JIf1ZrH0JaafBnNqWPZQ6eVo/J32gRlrrUsWWWtzzG7aSDHq6wyBQI6UeK+LRJ/nCp+l4n5qJn6ma/GpyE523WKCMV6r9+fzdvF8S6w/SREHawAmZA9PFaW+Ip2H7d1ukp+201xLYpAJUBgZB9PpIpdv/oojjOx2YUDbKcI9he8y2rL2+BTSJAEO0KaR6IxWusZrx/ORkUQ7pspshG/YCpYqHWTafo/Wt6AHkLeWlJBbQW1nlXurfD/e3m8ozoQju39DxGDh+wcauxnrKVGjiQ8oBgOjmqNChO/2FAWJwG/mxMFC6yaBL7ELVSt5fTJDw7XEsmJZkxGDqAsjjcx9K7sJhdMKKV1b21TFecJqIkXe3Ehv+FP2bJBTtg1SiM3TBZPVaFGRzf0JO+d6TIyizpNLpBqzB/BF42tDAth9CruMqT6jSjRZWx6rmnfxLimbhgSX183KDQui/f46mZrxz/hQRiOC4KZLc6Krbqqeyq1FY/KCLl1h+l7+TPY530nFA6dSf2XytsFxCr4F1rFi5JUtfdOhvWNCr1FfsKw1mHWRe1giN9M9NZJVa2dZfXHu2fV/Dg6NgNnzOz4AO8K039AhQIi2jYCVFHV4O7Rhe1Rk+5fJN9iGGF/GhMRlhubTJX090N2/BzHhGOQ5LmZ/gVDQ2NrSuclSbdpKr5iEUhvrHlgbDWv0zvsBm90USamwQxsrsNZYlpA==</t>
   </si>
 </sst>
 </file>
@@ -451,7 +451,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
+      <selection pane="bottomLeft" activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/json_max.xlsx
+++ b/json_max.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20412"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mardeev\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sphere\Titan_3070\user Dmitry Nesterov\Downloads\Downloads_00_All\Маркус\5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6488EBA0-0A46-4417-A244-6C6FC61FAF77}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA69330E-C88E-452A-8897-5ACE6FC5D41F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32505" yWindow="2160" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -117,7 +117,7 @@
     <t>U2FsdGVkX19PQST6oRb3uUB6cyFGdsIe3QUaut36xRhgLrSBER105qGmrDnJXxbaWymmB+ThxbaUB/2O+Ds43dTIknLYob/k0M0RbX2MDgrctlkZFdFNYVqlWnLM3by+hv3UN1QizejtpYiLVxV7/ArnVBXUjSX2aIKHQnUvA+spseey7QSREKnbVdtxq41v+qUg9R26IAsgSlcxprgipHlJFeqWr5YUz04TPmqAgfkEDM3TDF/c85UlZSjbRuIdhmCL3UsET/2dGAIUhw8t0zUEPVlDGc1aGLYOwX2OEk00ADNWWXrQFObHiQg6yQmcIE6XkjUB5naO7fSZC/jolVkqQvGMS5J/LLqTxJfTIh4=</t>
   </si>
   <si>
-    <t>U2FsdGVkX18JIf1ZrH0JaafBnNqWPZQ6eVo/J32gRlrrUsWWWtzzG7aSDHq6wyBQI6UeK+LRJ/nCp+l4n5qJn6ma/GpyE523WKCMV6r9+fzdvF8S6w/SREHawAmZA9PFaW+Ip2H7d1ukp+201xLYpAJUBgZB9PpIpdv/oojjOx2YUDbKcI9he8y2rL2+BTSJAEO0KaR6IxWusZrx/ORkUQ7pspshG/YCpYqHWTafo/Wt6AHkLeWlJBbQW1nlXurfD/e3m8ozoQju39DxGDh+wcauxnrKVGjiQ8oBgOjmqNChO/2FAWJwG/mxMFC6yaBL7ELVSt5fTJDw7XEsmJZkxGDqAsjjcx9K7sJhdMKKV1b21TFecJqIkXe3Ehv+FP2bJBTtg1SiM3TBZPVaFGRzf0JO+d6TIyizpNLpBqzB/BF42tDAth9CruMqT6jSjRZWx6rmnfxLimbhgSX183KDQui/f46mZrxz/hQRiOC4KZLc6Krbqqeyq1FY/KCLl1h+l7+TPY530nFA6dSf2XytsFxCr4F1rFi5JUtfdOhvWNCr1FfsKw1mHWRe1giN9M9NZJVa2dZfXHu2fV/Dg6NgNnzOz4AO8K039AhQIi2jYCVFHV4O7Rhe1Rk+5fJN9iGGF/GhMRlhubTJX090N2/BzHhGOQ5LmZ/gVDQ2NrSuclSbdpKr5iEUhvrHlgbDWv0zvsBm90USamwQxsrsNZYlpA==</t>
+    <t>U2FsdGVkX1+rwcfz3u00jrpF7vXaREpqJXjd0nRitSrXFIme7FZX6iQQMq1hGlcAFU9PIA6PV7P4//sfsmw4IFugXiNFvMx5BQzY2+/IKBc15L/ZCwr+FHUeiF4bfnbE2UQwwQ+Iy9N3UVkiqK9LssJCtPR4M2xCMG9EiAx7/Fz6rjFx1ekJXYMYli0oynU+oA/wQJoLh0z+rzeg9xzCfuhK+SLOeGcoxVi7KvX/BdRhxnjrjVgs5ok+D69dxbqHAD3jhRcLDFikVCr4RhozYyC+/JsCwg6vHHrW3937svihjNlNf/6SVGKBhg4Hldqwr/wu55fGkn7DwqFpYUjz5WDEIwTxH/7dl0P6vkbDZzJ7ZHPBMuoF8qad46T0Y4xnbBW8QanJzrhkEVvVwl7j59VL6wgS5tzKHYctpraw6UXx8PR+0DKOqRJHjDeyJNUd178cvgbQChi41aj4TzbCRysXVV29GObhSvoyrowBq2Fk4LiCBqq+j/I0nz92WktGF3Y07pPlV8i6YZZ7KaKMxQfyCzDV2Qgs7PwJpvd5REcXTPSa2dhwjd0kjQ/5t3u1atPIM746zfG5fEEg8o0vbc2T+XRVIwCaD0Q1hR3p1Xww5L6mAFqCw/ZeCVG0Y4DnmZJ+RTaSNfOADFzCplqkizettwPG6fVJWY99zOLgT8EIrSV2XfL/zJSQ15vGjmIL7huhUs3fXSDwo2nrzHIYSQ==</t>
   </si>
 </sst>
 </file>
@@ -451,7 +451,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B20" sqref="B20"/>
+      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/json_max.xlsx
+++ b/json_max.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sphere\Titan_3070\user Dmitry Nesterov\Downloads\Downloads_00_All\Маркус\5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sphere\Titan_3070\user Dmitry Nesterov\Downloads\Downloads_00_All\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA69330E-C88E-452A-8897-5ACE6FC5D41F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CB7C156-957F-4DBF-AFE2-48D0EB114D85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="32505" yWindow="2160" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -117,7 +117,7 @@
     <t>U2FsdGVkX19PQST6oRb3uUB6cyFGdsIe3QUaut36xRhgLrSBER105qGmrDnJXxbaWymmB+ThxbaUB/2O+Ds43dTIknLYob/k0M0RbX2MDgrctlkZFdFNYVqlWnLM3by+hv3UN1QizejtpYiLVxV7/ArnVBXUjSX2aIKHQnUvA+spseey7QSREKnbVdtxq41v+qUg9R26IAsgSlcxprgipHlJFeqWr5YUz04TPmqAgfkEDM3TDF/c85UlZSjbRuIdhmCL3UsET/2dGAIUhw8t0zUEPVlDGc1aGLYOwX2OEk00ADNWWXrQFObHiQg6yQmcIE6XkjUB5naO7fSZC/jolVkqQvGMS5J/LLqTxJfTIh4=</t>
   </si>
   <si>
-    <t>U2FsdGVkX1+rwcfz3u00jrpF7vXaREpqJXjd0nRitSrXFIme7FZX6iQQMq1hGlcAFU9PIA6PV7P4//sfsmw4IFugXiNFvMx5BQzY2+/IKBc15L/ZCwr+FHUeiF4bfnbE2UQwwQ+Iy9N3UVkiqK9LssJCtPR4M2xCMG9EiAx7/Fz6rjFx1ekJXYMYli0oynU+oA/wQJoLh0z+rzeg9xzCfuhK+SLOeGcoxVi7KvX/BdRhxnjrjVgs5ok+D69dxbqHAD3jhRcLDFikVCr4RhozYyC+/JsCwg6vHHrW3937svihjNlNf/6SVGKBhg4Hldqwr/wu55fGkn7DwqFpYUjz5WDEIwTxH/7dl0P6vkbDZzJ7ZHPBMuoF8qad46T0Y4xnbBW8QanJzrhkEVvVwl7j59VL6wgS5tzKHYctpraw6UXx8PR+0DKOqRJHjDeyJNUd178cvgbQChi41aj4TzbCRysXVV29GObhSvoyrowBq2Fk4LiCBqq+j/I0nz92WktGF3Y07pPlV8i6YZZ7KaKMxQfyCzDV2Qgs7PwJpvd5REcXTPSa2dhwjd0kjQ/5t3u1atPIM746zfG5fEEg8o0vbc2T+XRVIwCaD0Q1hR3p1Xww5L6mAFqCw/ZeCVG0Y4DnmZJ+RTaSNfOADFzCplqkizettwPG6fVJWY99zOLgT8EIrSV2XfL/zJSQ15vGjmIL7huhUs3fXSDwo2nrzHIYSQ==</t>
+    <t>U2FsdGVkX18/i8S14xFv/odbT8CTiiDUYFdJCnQ1YIpPHKsHgFx9UsHkbGmtDI7aeETe3bhfq+zQlQ3oQm0zDoBKlkGsRyVdGhTyw8/UYDNTp/mTJxpcwTawDhYhUKQ+1mmiZ9qmocMabuAcgh7IXcfyuWQZCCcc9dgDzNC5XSz3SRbCYPlT6BXWGfGUCQKd5w3ChWeRs723vrdzXvTAAzmY80iJ3Z1uY5Zo1rlFaAga/v2vzpzw+hYDOPP3dDGBObuqPfox7pbBMaBb9iBHupU6NxXydKY0y44aT3pJ+GT4c6AXvD8RYVygr1T65UDgeoE/kRk6N4ow5EyOv25E42BHD51hLF19OUAp1n6EqREKNKc2CMln3RfA42/VaCDv08I1WuHM/uoTCY90xnAw8g6esa6r/988qvMSAhj+8FZHT4ur3cWejaWxn08Fz5rBD3aSsO88Dd96Q8VoXAudLgBwlMsvFM4kM9gAQNg8sJY2k7B6fECzM4WDTu/syibmvoeq2MOY94UVl2bf6jAREVelg6wdwfBlFV9OHATflAJA+pkwd1Emy9enufs0kpnWsGybnjlIF6hfOg9fTISUWJR7282fbzms3hGEbXrcLJdA3diacyes+McI38+f1+2jSgycVESEGPlerVWeweSHOgWKzU7RT4bTMc9A0CmI9/ct4E+pweQTFPMqrVz6y+GSv9ePn6jki4v1vfJ/6YUDzBxsiEoKTfFxPm3HAegUeb2vLEuB2RmMd3QN7kImKopmLRnThNCDRRdp2Si0bJ1Z6/KoRPWa4rEbb/lkc+aH6GI=</t>
   </si>
 </sst>
 </file>
@@ -451,7 +451,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
+      <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/json_max.xlsx
+++ b/json_max.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sphere\Titan_3070\user Dmitry Nesterov\Downloads\Downloads_00_All\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sphere\Titan_3070\user Dmitry Nesterov\Downloads\Downloads_00_All\Маркус\6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CB7C156-957F-4DBF-AFE2-48D0EB114D85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56DD127D-E610-4003-86F7-228DE9F4A2DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="32505" yWindow="2160" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -117,7 +117,7 @@
     <t>U2FsdGVkX19PQST6oRb3uUB6cyFGdsIe3QUaut36xRhgLrSBER105qGmrDnJXxbaWymmB+ThxbaUB/2O+Ds43dTIknLYob/k0M0RbX2MDgrctlkZFdFNYVqlWnLM3by+hv3UN1QizejtpYiLVxV7/ArnVBXUjSX2aIKHQnUvA+spseey7QSREKnbVdtxq41v+qUg9R26IAsgSlcxprgipHlJFeqWr5YUz04TPmqAgfkEDM3TDF/c85UlZSjbRuIdhmCL3UsET/2dGAIUhw8t0zUEPVlDGc1aGLYOwX2OEk00ADNWWXrQFObHiQg6yQmcIE6XkjUB5naO7fSZC/jolVkqQvGMS5J/LLqTxJfTIh4=</t>
   </si>
   <si>
-    <t>U2FsdGVkX18/i8S14xFv/odbT8CTiiDUYFdJCnQ1YIpPHKsHgFx9UsHkbGmtDI7aeETe3bhfq+zQlQ3oQm0zDoBKlkGsRyVdGhTyw8/UYDNTp/mTJxpcwTawDhYhUKQ+1mmiZ9qmocMabuAcgh7IXcfyuWQZCCcc9dgDzNC5XSz3SRbCYPlT6BXWGfGUCQKd5w3ChWeRs723vrdzXvTAAzmY80iJ3Z1uY5Zo1rlFaAga/v2vzpzw+hYDOPP3dDGBObuqPfox7pbBMaBb9iBHupU6NxXydKY0y44aT3pJ+GT4c6AXvD8RYVygr1T65UDgeoE/kRk6N4ow5EyOv25E42BHD51hLF19OUAp1n6EqREKNKc2CMln3RfA42/VaCDv08I1WuHM/uoTCY90xnAw8g6esa6r/988qvMSAhj+8FZHT4ur3cWejaWxn08Fz5rBD3aSsO88Dd96Q8VoXAudLgBwlMsvFM4kM9gAQNg8sJY2k7B6fECzM4WDTu/syibmvoeq2MOY94UVl2bf6jAREVelg6wdwfBlFV9OHATflAJA+pkwd1Emy9enufs0kpnWsGybnjlIF6hfOg9fTISUWJR7282fbzms3hGEbXrcLJdA3diacyes+McI38+f1+2jSgycVESEGPlerVWeweSHOgWKzU7RT4bTMc9A0CmI9/ct4E+pweQTFPMqrVz6y+GSv9ePn6jki4v1vfJ/6YUDzBxsiEoKTfFxPm3HAegUeb2vLEuB2RmMd3QN7kImKopmLRnThNCDRRdp2Si0bJ1Z6/KoRPWa4rEbb/lkc+aH6GI=</t>
+    <t>U2FsdGVkX18qEEkOMB4h67s4O86iM+T9yv8yvHVLQFjYEGN4wvWNVhJ46cWtYZwN+ZYwIRfIf0+dotct3bGdBaUz2K87lD6eB3uvFWhAvo36Us4MCenkLsl2S4YZHtRO+/txcOrWbgqd5hFMzzLwNbPQ7N5EehZ8779WaMixBJMbnP3uYsk22v02KMlQnJueha4w3ank5/GDv8UPqQW9CowcHe1NmnevBkbSOvHLb+L2Dn7wUPKeQGbkaXhJAn9eNVHUcSQMKJb5gBiUmYKMLwEGjopAmZkRs2H70EcZKsEQPjHjgHZe8lPnieflo7A6AgdRcs/oebg1zByb0hs/h3Va+ipvzYSVcQUV5IxVuju5+IS1uv6wCO3rbEls+hyfQLTsf2/wlUcfaNP/Q8pyc9c0q7N2Kg4ql59jpMIjo5Nm/fvkVEjctZNcV2jZXWnqpA+x1n0EYT3SO20HB25MNbV0eInOtFMqbIGUk9X0aavWPjFAz89qokiU5gvLHpYc2rwOZwk/VwxlaOehJmDBBb0uTwAuFy1n/EmAIuasSgXOSjNALXIYAskoNtLfhEakY1B7v/OUjmzDA3D3YW3FVmbf7am6G7hFCEdgLq67qSdaj2ObldQWAjw/7SSggat5SsmtulkMDlUNl1inxt2lKJzcgWbvm1YGiGZvEpnEN7t3lgsOmKgWp4hgKmgf4Ori9LE2p347FzwUS/11HWelegIhBrz59xU8rXZDZKGb21G3kdVLditKacNBhSewxYSm4lhIQvD+/lKUDQRKQbyN/xWmmhrju2wb8IcJWHlUFFg=</t>
   </si>
 </sst>
 </file>
